--- a/SGCCA_HSIC/Results/Simulation1_DynamicNoiseVariable.xlsx
+++ b/SGCCA_HSIC/Results/Simulation1_DynamicNoiseVariable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programer\Documents\GitHub\SGCCA_HSIC\SGCCA_HSIC\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B4C51-488F-4512-921F-6F705F600447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGCCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGCCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGCCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNGCCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col_Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +409,1321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.72016670000000005</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.36249680000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3131198</v>
+      </c>
+      <c r="E2">
+        <v>7.4419559999999996E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.957388E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1122047</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.93546669999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.68366289999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.65198480000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0155929999999999E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.2485869999999994E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.5356039999999994E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.7423805</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.72437039999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5016170000000001E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.1622129999999997E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.6093679999999997E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.95743330000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.76183639999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.75004389999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.1738780000000001E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.0511569999999999E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.4178879999999994E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.71946670000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.36073620000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.31091180000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.2213650000000004E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.6368259999999993E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.10730430000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.69192719999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.66125880000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.066432E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.7791879999999994E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.0891769999999997E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.74880930000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.73259200000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.4544369999999999E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.096385E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.5331170000000003E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.95773330000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.76402179999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.75302809999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.305897E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.4536920000000003E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.8511719999999998E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.73604060000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.73087999999999997</v>
+      </c>
+      <c r="E17">
+        <v>5.5546526999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.8350000000000007E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.10855670000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C18">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="E18">
+        <v>2.843E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.312E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.41233E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.96116659999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.86763500000000005</v>
+      </c>
+      <c r="D19">
+        <v>0.86502970000000001</v>
+      </c>
+      <c r="E19">
+        <v>5.5128799999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.14894099999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.15431239999999999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.97266666000000002</v>
+      </c>
+      <c r="C20">
+        <v>0.90765457000000005</v>
+      </c>
+      <c r="D20">
+        <v>0.90515599000000002</v>
+      </c>
+      <c r="E20">
+        <v>5.2690000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.14606156000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.154823988</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0.12233330000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.2515886</v>
+      </c>
+      <c r="D22">
+        <v>0.1804325</v>
+      </c>
+      <c r="E22">
+        <v>0.24625929999999999</v>
+      </c>
+      <c r="F22">
+        <v>8.0307740000000002E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.15168680000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.14256669999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.37791960000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.35247679999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.28623460000000001</v>
+      </c>
+      <c r="F23">
+        <v>7.7643030000000002E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.1178797</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.4132054</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.38889089999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.3022879</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8.4477319999999995E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.1187653</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.40824250000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.37724970000000002</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.30498789999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9.3518809999999994E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.13364219999999999</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.747</v>
+      </c>
+      <c r="C26">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.377</v>
+      </c>
+      <c r="E26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.34908889999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.31613760000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5.74E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.72226670000000004</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.38745859999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.36198330000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.8785929999999998E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7.78026E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.1166213</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.75003330000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.40786709999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.38247249999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.6155939999999999E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8.3271239999999996E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.11939909999999999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.7611</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.41644320000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.39028030000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.4624299999999999E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.4956149999999994E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.121129</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.371</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.6522</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.29789389999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.22900519999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6.1113430000000003E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7.2284459999999995E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.1166777</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.82586669999999995</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.4633449</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.41637489999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.995906E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8.9142520000000003E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.1022776</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.49716959999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.45054100000000002</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4.4385149999999998E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8.9986350000000007E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.1025364</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.85843329999999995</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.512073</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.46580389999999999</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4.4221799999999999E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9.4359159999999997E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.10627</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.313</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.65366670000000004</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.2983672</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.2289977</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6.2404679999999997E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>7.2937959999999996E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.1177805</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.45601390000000003</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.40883039999999998</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4.8127660000000003E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8.3389779999999997E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>9.7528509999999999E-2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.84823329999999997</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.4967549</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.45055620000000002</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4.6709720000000003E-2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9.6470979999999998E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.1100231</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.507799</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.46151500000000001</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.4124620000000003E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>8.9903640000000007E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.10183300000000001</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>